--- a/_ressources/DW+P5+-+Modele+plan+tests+acceptation.xlsx
+++ b/_ressources/DW+P5+-+Modele+plan+tests+acceptation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Parcours Développeur Web\Projet 5\_ressources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BD35128-0B90-496E-B3BB-86874643892E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96303688-80B7-4366-847D-F37DD74692A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2685" yWindow="5130" windowWidth="25845" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuille 1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>Fonctionnalité</t>
   </si>
@@ -34,49 +34,7 @@
     <t>Résultat observé</t>
   </si>
   <si>
-    <t>Une page d’accueil montrant (de manière dynamique) tous les articles disponibles à la vente.</t>
-  </si>
-  <si>
-    <t>Ouvrir sur la page d'accueil du site web dans un navigateur</t>
-  </si>
-  <si>
-    <t>Affichage de l'ensemble des produits</t>
-  </si>
-  <si>
-    <t>OK / Description erreur</t>
-  </si>
-  <si>
     <t>...</t>
-  </si>
-  <si>
-    <t>Une page "confirmation"</t>
-  </si>
-  <si>
-    <t>Affichage des produits selectionnés</t>
-  </si>
-  <si>
-    <t>Une page “panier” qui affiche un résumé des produits du panier</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Une page “produit” qui affiche (de manière dynamique) les détails du produit sur
-lequel l'utilisateur a cliqué depuis la page d’accueil. </t>
-  </si>
-  <si>
-    <t>Depuis cette page, l’utilisateur
-peut sélectionner une quantité, une couleur, et ajouter le produit à son panier</t>
-  </si>
-  <si>
-    <t>Depuis cette page, l'utilisateur voit un résumé des articles selectionnés dans la page "produit". Il peut ainsi modifier la quantité d'un produit sélectionné ou le supprimer de la liste.
-Un formulaire est aussi présent permettant de passer la commande.</t>
-  </si>
-  <si>
-    <t>Affiche les produits, l'utilisateur peut modifier sa commande et lorsqu'il remplit le formulaire pour passer celle-ci, le formulaire doit respecte une certaine mise en forme (ex: pas de chiffres dans le champ "prénom", etc..)</t>
-  </si>
-  <si>
-    <t>Depuis cette page, on affiche un message de commande.</t>
-  </si>
-  <si>
-    <t>Remercie l'utilisateur d'avoir passé sa commande et lui indique son numéro de commande (envoyé par l'API)</t>
   </si>
 </sst>
 </file>
@@ -378,7 +336,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="26">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -421,7 +379,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -672,8 +630,8 @@
   </sheetPr>
   <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -704,62 +662,36 @@
       <c r="A2" s="11">
         <v>1</v>
       </c>
-      <c r="B2" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="14" t="s">
-        <v>7</v>
-      </c>
+      <c r="B2" s="12"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="14"/>
     </row>
     <row r="3" spans="1:5" s="15" customFormat="1" ht="109.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="16">
         <v>2</v>
       </c>
-      <c r="B3" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="18" t="s">
-        <v>10</v>
-      </c>
+      <c r="B3" s="17"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
       <c r="E3" s="19"/>
     </row>
     <row r="4" spans="1:5" s="15" customFormat="1" ht="193.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="16">
         <v>3</v>
       </c>
-      <c r="B4" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="18" t="s">
-        <v>15</v>
-      </c>
+      <c r="B4" s="25"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
       <c r="E4" s="19"/>
     </row>
     <row r="5" spans="1:5" s="15" customFormat="1" ht="109.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="16">
         <v>4</v>
       </c>
-      <c r="B5" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="18" t="s">
-        <v>17</v>
-      </c>
+      <c r="B5" s="17"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
       <c r="E5" s="19"/>
     </row>
     <row r="6" spans="1:5" s="15" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -771,114 +703,114 @@
       <c r="D6" s="18"/>
       <c r="E6" s="19"/>
     </row>
-    <row r="7" spans="1:5" ht="21.75" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" ht="18" x14ac:dyDescent="0.2">
       <c r="A7" s="10" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B7" s="17"/>
       <c r="C7" s="23"/>
       <c r="D7" s="23"/>
       <c r="E7" s="24"/>
     </row>
-    <row r="8" spans="1:5" ht="21.75" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:5" ht="18" x14ac:dyDescent="0.25">
       <c r="A8" s="6"/>
       <c r="B8" s="21"/>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
       <c r="E8" s="5"/>
     </row>
-    <row r="9" spans="1:5" ht="21.75" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:5" ht="18" x14ac:dyDescent="0.25">
       <c r="A9" s="6"/>
       <c r="B9" s="21"/>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
       <c r="E9" s="5"/>
     </row>
-    <row r="10" spans="1:5" ht="21.75" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:5" ht="18" x14ac:dyDescent="0.25">
       <c r="A10" s="6"/>
       <c r="B10" s="21"/>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
       <c r="E10" s="5"/>
     </row>
-    <row r="11" spans="1:5" ht="21.75" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:5" ht="18" x14ac:dyDescent="0.25">
       <c r="A11" s="6"/>
       <c r="B11" s="21"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
       <c r="E11" s="5"/>
     </row>
-    <row r="12" spans="1:5" ht="21.75" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:5" ht="18" x14ac:dyDescent="0.25">
       <c r="A12" s="6"/>
       <c r="B12" s="21"/>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
       <c r="E12" s="5"/>
     </row>
-    <row r="13" spans="1:5" ht="21.75" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:5" ht="18" x14ac:dyDescent="0.25">
       <c r="A13" s="6"/>
       <c r="B13" s="21"/>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
       <c r="E13" s="5"/>
     </row>
-    <row r="14" spans="1:5" ht="21.75" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:5" ht="18" x14ac:dyDescent="0.25">
       <c r="A14" s="6"/>
       <c r="B14" s="21"/>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
       <c r="E14" s="5"/>
     </row>
-    <row r="15" spans="1:5" ht="21.75" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:5" ht="18" x14ac:dyDescent="0.25">
       <c r="A15" s="6"/>
       <c r="B15" s="21"/>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
       <c r="E15" s="5"/>
     </row>
-    <row r="16" spans="1:5" ht="21.75" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:5" ht="18" x14ac:dyDescent="0.25">
       <c r="A16" s="6"/>
       <c r="B16" s="21"/>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
       <c r="E16" s="5"/>
     </row>
-    <row r="17" spans="1:5" ht="21.75" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:5" ht="18" x14ac:dyDescent="0.25">
       <c r="A17" s="6"/>
       <c r="B17" s="21"/>
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
       <c r="E17" s="5"/>
     </row>
-    <row r="18" spans="1:5" ht="21.75" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:5" ht="18" x14ac:dyDescent="0.25">
       <c r="A18" s="6"/>
       <c r="B18" s="21"/>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
       <c r="E18" s="5"/>
     </row>
-    <row r="19" spans="1:5" ht="21.75" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:5" ht="18" x14ac:dyDescent="0.25">
       <c r="A19" s="6"/>
       <c r="B19" s="21"/>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
       <c r="E19" s="5"/>
     </row>
-    <row r="20" spans="1:5" ht="21.75" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:5" ht="18" x14ac:dyDescent="0.25">
       <c r="A20" s="6"/>
       <c r="B20" s="21"/>
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
       <c r="E20" s="5"/>
     </row>
-    <row r="21" spans="1:5" ht="21.75" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:5" ht="18" x14ac:dyDescent="0.25">
       <c r="A21" s="6"/>
       <c r="B21" s="21"/>
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
       <c r="E21" s="5"/>
     </row>
-    <row r="22" spans="1:5" ht="21.75" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:5" ht="18" x14ac:dyDescent="0.25">
       <c r="A22" s="7"/>
       <c r="B22" s="22"/>
       <c r="C22" s="8"/>
